--- a/DPLKKLM001-009 - Setup Jenis Laporan  - Tambah, Ubah, View Detil & Hapus Data/Report/Report/Default.xlsx
+++ b/DPLKKLM001-009 - Setup Jenis Laporan  - Tambah, Ubah, View Detil & Hapus Data/Report/Report/Default.xlsx
@@ -573,14 +573,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -762,13 +762,13 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -792,66 +792,66 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1160,30 +1160,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="11.140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="24.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="36.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17" style="12" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.078125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="11.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="36.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.078125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
@@ -1267,19 +1267,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>140</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1288,20 +1288,20 @@
       <c r="G2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N2" s="7" t="s">
@@ -1310,25 +1310,25 @@
       <c r="O2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2" t="s">
+      <c r="W2" s="3"/>
+      <c r="X2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Z2" s="22"/>
+      <c r="Z2" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1349,26 +1349,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37" style="25" customWidth="1"/>
-    <col min="5" max="6" width="32.7109375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.42578125" style="25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7109375" style="25" customWidth="1"/>
-    <col min="16" max="17" width="6.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.078125" style="25" customWidth="1"/>
-    <col min="22" max="22" width="12" style="25" customWidth="1"/>
-    <col min="23" max="16384" width="9.078125" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="26" customWidth="1"/>
+    <col min="5" max="6" width="32.7109375" style="26" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="15" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.42578125" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="26" customWidth="1"/>
+    <col min="16" max="17" width="6.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.078125" style="26" customWidth="1"/>
+    <col min="22" max="22" width="12" style="26" customWidth="1"/>
+    <col min="23" max="16384" width="9.078125" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
@@ -1474,20 +1474,20 @@
         <v>130</v>
       </c>
       <c r="L2" s="4"/>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="10" t="s">
         <v>133</v>
       </c>
       <c r="O2" s="5"/>
-      <c r="P2" s="14"/>
+      <c r="P2" s="17"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
-      <c r="V2" s="21"/>
+      <c r="V2" s="22"/>
     </row>
     <row r="3" ht="41.95">
       <c r="A3" s="4" t="s">
@@ -1524,20 +1524,20 @@
         <v>130</v>
       </c>
       <c r="L3" s="4"/>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>3</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="14"/>
+      <c r="P3" s="17"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
       <c r="U3" s="4"/>
-      <c r="V3" s="26"/>
+      <c r="V3" s="16"/>
     </row>
     <row r="4" ht="41.95">
       <c r="A4" s="4" t="s">
@@ -1574,18 +1574,18 @@
         <v>130</v>
       </c>
       <c r="L4" s="4"/>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="14"/>
+      <c r="P4" s="17"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
       <c r="U4" s="4"/>
-      <c r="V4" s="26"/>
+      <c r="V4" s="16"/>
     </row>
     <row r="5" ht="41.95">
       <c r="A5" s="4" t="s">
@@ -1622,66 +1622,66 @@
         <v>130</v>
       </c>
       <c r="L5" s="4"/>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="17"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="26"/>
+      <c r="V5" s="16"/>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="3"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="24"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="14"/>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="3"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="24"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1699,7 +1699,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="12" customWidth="1"/>
+    <col min="1" max="16384" width="9.078125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
@@ -1718,49 +1718,49 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="21.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="57.140625" style="17" customWidth="1"/>
-    <col min="13" max="14" width="61" style="17" customWidth="1"/>
-    <col min="15" max="15" width="47" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="63.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="103.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="69.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="61" style="17" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="51" style="17" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="49.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="59.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="49.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="53.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="56.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="57.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="53.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="58.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="62.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="51.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="57.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="57.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="53.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="58.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="21.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="9.078125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="57.140625" style="13" customWidth="1"/>
+    <col min="13" max="14" width="61" style="13" customWidth="1"/>
+    <col min="15" max="15" width="47" style="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="63.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="103.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="69.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="61" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="51" style="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="49.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="59.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="49.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="53.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="56.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="57.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="53.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="58.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="62.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="51.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="57.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="57.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="53.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="58.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="9.078125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
@@ -1934,7 +1934,7 @@
       <c r="J2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1967,7 +1967,7 @@
       <c r="U2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="19" t="s">
         <v>98</v>
       </c>
       <c r="W2" s="1">
@@ -2039,7 +2039,7 @@
       <c r="AS2" s="8">
         <v>259</v>
       </c>
-      <c r="AT2" s="18" t="s">
+      <c r="AT2" s="25" t="s">
         <v>22</v>
       </c>
     </row>
